--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icosl-Cd28.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icosl-Cd28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.14972333333333</v>
+        <v>1.089622333333333</v>
       </c>
       <c r="H2">
-        <v>30.44917</v>
+        <v>3.268867</v>
       </c>
       <c r="I2">
-        <v>0.4728485742924059</v>
+        <v>0.09062709179941439</v>
       </c>
       <c r="J2">
-        <v>0.4728485742924059</v>
+        <v>0.09062709179941439</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1791996666666666</v>
+        <v>5.273410666666667</v>
       </c>
       <c r="N2">
-        <v>0.5375989999999999</v>
+        <v>15.820232</v>
       </c>
       <c r="O2">
-        <v>0.04251079199666428</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.04251079199666428</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.818827038092222</v>
+        <v>5.746026035238224</v>
       </c>
       <c r="R2">
-        <v>16.36944334283</v>
+        <v>51.714234317144</v>
       </c>
       <c r="S2">
-        <v>0.02010116738766373</v>
+        <v>0.09062709179941439</v>
       </c>
       <c r="T2">
-        <v>0.02010116738766373</v>
+        <v>0.09062709179941439</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.14972333333333</v>
+        <v>1.876575666666667</v>
       </c>
       <c r="H3">
-        <v>30.44917</v>
+        <v>5.629727</v>
       </c>
       <c r="I3">
-        <v>0.4728485742924059</v>
+        <v>0.1560803133424032</v>
       </c>
       <c r="J3">
-        <v>0.4728485742924059</v>
+        <v>0.1560803133424032</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.036192666666667</v>
+        <v>5.273410666666667</v>
       </c>
       <c r="N3">
-        <v>12.108578</v>
+        <v>15.820232</v>
       </c>
       <c r="O3">
-        <v>0.9574892080033358</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9574892080033357</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>40.96623888669556</v>
+        <v>9.895954137407111</v>
       </c>
       <c r="R3">
-        <v>368.69614998026</v>
+        <v>89.06358723666401</v>
       </c>
       <c r="S3">
-        <v>0.4527474069047422</v>
+        <v>0.1560803133424032</v>
       </c>
       <c r="T3">
-        <v>0.4527474069047422</v>
+        <v>0.1560803133424032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.876575666666667</v>
+        <v>0.6928603333333333</v>
       </c>
       <c r="H4">
-        <v>5.629727</v>
+        <v>2.078581</v>
       </c>
       <c r="I4">
-        <v>0.08742466167732858</v>
+        <v>0.05762723019918477</v>
       </c>
       <c r="J4">
-        <v>0.08742466167732858</v>
+        <v>0.05762723019918477</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1791996666666666</v>
+        <v>5.273410666666667</v>
       </c>
       <c r="N4">
-        <v>0.5375989999999999</v>
+        <v>15.820232</v>
       </c>
       <c r="O4">
-        <v>0.04251079199666428</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.04251079199666428</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.3362817339414444</v>
+        <v>3.653737072310222</v>
       </c>
       <c r="R4">
-        <v>3.026535605473</v>
+        <v>32.883633650792</v>
       </c>
       <c r="S4">
-        <v>0.003716491607943663</v>
+        <v>0.05762723019918477</v>
       </c>
       <c r="T4">
-        <v>0.003716491607943663</v>
+        <v>0.05762723019918477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.876575666666667</v>
+        <v>8.364082999999999</v>
       </c>
       <c r="H5">
-        <v>5.629727</v>
+        <v>25.092249</v>
       </c>
       <c r="I5">
-        <v>0.08742466167732858</v>
+        <v>0.6956653646589975</v>
       </c>
       <c r="J5">
-        <v>0.08742466167732858</v>
+        <v>0.6956653646589976</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.036192666666667</v>
+        <v>5.273410666666667</v>
       </c>
       <c r="N5">
-        <v>12.108578</v>
+        <v>15.820232</v>
       </c>
       <c r="O5">
-        <v>0.9574892080033358</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.9574892080033357</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>7.574220944245111</v>
+        <v>44.10724450908533</v>
       </c>
       <c r="R5">
-        <v>68.167988498206</v>
+        <v>396.965200581768</v>
       </c>
       <c r="S5">
-        <v>0.08370817006938493</v>
+        <v>0.6956653646589975</v>
       </c>
       <c r="T5">
-        <v>0.08370817006938491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.5985983333333333</v>
-      </c>
-      <c r="H6">
-        <v>1.795795</v>
-      </c>
-      <c r="I6">
-        <v>0.02788710186423574</v>
-      </c>
-      <c r="J6">
-        <v>0.02788710186423574</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1791996666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.5375989999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.04251079199666428</v>
-      </c>
-      <c r="P6">
-        <v>0.04251079199666428</v>
-      </c>
-      <c r="Q6">
-        <v>0.1072686218005555</v>
-      </c>
-      <c r="R6">
-        <v>0.9654175962049999</v>
-      </c>
-      <c r="S6">
-        <v>0.001185502786740314</v>
-      </c>
-      <c r="T6">
-        <v>0.001185502786740315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.5985983333333333</v>
-      </c>
-      <c r="H7">
-        <v>1.795795</v>
-      </c>
-      <c r="I7">
-        <v>0.02788710186423574</v>
-      </c>
-      <c r="J7">
-        <v>0.02788710186423574</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4.036192666666667</v>
-      </c>
-      <c r="N7">
-        <v>12.108578</v>
-      </c>
-      <c r="O7">
-        <v>0.9574892080033358</v>
-      </c>
-      <c r="P7">
-        <v>0.9574892080033357</v>
-      </c>
-      <c r="Q7">
-        <v>2.416058203278889</v>
-      </c>
-      <c r="R7">
-        <v>21.74452382951</v>
-      </c>
-      <c r="S7">
-        <v>0.02670159907749543</v>
-      </c>
-      <c r="T7">
-        <v>0.02670159907749543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>8.840163333333335</v>
-      </c>
-      <c r="H8">
-        <v>26.52049</v>
-      </c>
-      <c r="I8">
-        <v>0.4118396621660297</v>
-      </c>
-      <c r="J8">
-        <v>0.4118396621660297</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.1791996666666666</v>
-      </c>
-      <c r="N8">
-        <v>0.5375989999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.04251079199666428</v>
-      </c>
-      <c r="P8">
-        <v>0.04251079199666428</v>
-      </c>
-      <c r="Q8">
-        <v>1.584154322612222</v>
-      </c>
-      <c r="R8">
-        <v>14.25738890351</v>
-      </c>
-      <c r="S8">
-        <v>0.01750763021431658</v>
-      </c>
-      <c r="T8">
-        <v>0.01750763021431658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>8.840163333333335</v>
-      </c>
-      <c r="H9">
-        <v>26.52049</v>
-      </c>
-      <c r="I9">
-        <v>0.4118396621660297</v>
-      </c>
-      <c r="J9">
-        <v>0.4118396621660297</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.036192666666667</v>
-      </c>
-      <c r="N9">
-        <v>12.108578</v>
-      </c>
-      <c r="O9">
-        <v>0.9574892080033358</v>
-      </c>
-      <c r="P9">
-        <v>0.9574892080033357</v>
-      </c>
-      <c r="Q9">
-        <v>35.68060241813556</v>
-      </c>
-      <c r="R9">
-        <v>321.12542176322</v>
-      </c>
-      <c r="S9">
-        <v>0.3943320319517132</v>
-      </c>
-      <c r="T9">
-        <v>0.3943320319517132</v>
+        <v>0.6956653646589976</v>
       </c>
     </row>
   </sheetData>
